--- a/sheets/SuiteA.xlsx
+++ b/sheets/SuiteA.xlsx
@@ -3,21 +3,22 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E88A985-5787-431B-A203-F536D200DE8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1039413C-F291-43A8-8A89-65F402F4F0B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
     <sheet name="Keywords" sheetId="2" r:id="rId2"/>
     <sheet name="Data" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="90">
   <si>
     <t>TCID</t>
   </si>
@@ -52,12 +53,6 @@
     <t>Chrome</t>
   </si>
   <si>
-    <t>Dummy3</t>
-  </si>
-  <si>
-    <t>Col3</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -256,15 +251,6 @@
     <t>chooseFile_xpath</t>
   </si>
   <si>
-    <t>E:\2020-Learnings\eclipse-workspace\MaaaksfinAutomation\autoit\tomato.jpg</t>
-  </si>
-  <si>
-    <t>Automation Test1</t>
-  </si>
-  <si>
-    <t>Automation Test2</t>
-  </si>
-  <si>
     <t>totalProduct_xpath</t>
   </si>
   <si>
@@ -274,10 +260,34 @@
     <t>Product ID</t>
   </si>
   <si>
-    <t>PRO1965</t>
-  </si>
-  <si>
     <t>editButton_xpath</t>
+  </si>
+  <si>
+    <t>sleep</t>
+  </si>
+  <si>
+    <t>C:\Users\suresh\git\images\Tomato.jpg</t>
+  </si>
+  <si>
+    <t>testing123</t>
+  </si>
+  <si>
+    <t>PRO9418</t>
+  </si>
+  <si>
+    <t>Select For Special Fresh New Arrival Product Section</t>
+  </si>
+  <si>
+    <t>Select For Product Packaging Type</t>
+  </si>
+  <si>
+    <t>Loose Product</t>
+  </si>
+  <si>
+    <t>Select For This</t>
+  </si>
+  <si>
+    <t>Feture Product</t>
   </si>
 </sst>
 </file>
@@ -764,8 +774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -792,18 +802,18 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -814,10 +824,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -834,16 +844,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -852,7 +862,7 @@
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4" t="s">
@@ -865,10 +875,10 @@
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E3" s="4"/>
     </row>
@@ -878,10 +888,10 @@
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4" s="4"/>
     </row>
@@ -891,10 +901,10 @@
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>6</v>
@@ -906,10 +916,10 @@
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>7</v>
@@ -921,10 +931,10 @@
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E7" s="4"/>
     </row>
@@ -934,18 +944,18 @@
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7" t="s">
@@ -954,402 +964,680 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10" s="7"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E12" s="7"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E13" s="7"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B27" s="7"/>
       <c r="C27" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B28" s="7"/>
       <c r="C28" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B29" s="7"/>
       <c r="C29" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B30" s="7"/>
       <c r="C30" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B31" s="7"/>
       <c r="C31" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B32" s="7"/>
       <c r="C32" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E32" s="7"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13" t="s">
-        <v>5</v>
-      </c>
+      <c r="A33" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D33" s="7">
+        <v>20</v>
+      </c>
+      <c r="E33" s="7"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B34" s="13"/>
       <c r="C34" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34" s="13"/>
+        <v>15</v>
+      </c>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B35" s="13"/>
       <c r="C35" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D35" s="13"/>
+        <v>16</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>20</v>
+      </c>
       <c r="E35" s="13"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B36" s="13"/>
       <c r="C36" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>82</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D36" s="13"/>
       <c r="E36" s="13"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B37" s="13"/>
       <c r="C37" s="13" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="E37" s="13" t="s">
-        <v>84</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="E37" s="13"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B38" s="13"/>
       <c r="C38" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="E38" s="13"/>
+        <v>78</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E39" s="13"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c r="C55" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c r="C56" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c r="C57" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c r="C58" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E58" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" display="http://zoho.com" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="D10" r:id="rId2" display="http://zoho.com" xr:uid="{F3DA572B-5427-4881-9D01-2C66F0F74C52}"/>
-    <hyperlink ref="D34" r:id="rId3" display="http://zoho.com" xr:uid="{A6308157-4BE1-4A73-8AF9-7117861D7D9C}"/>
+    <hyperlink ref="D3" r:id="rId1" display="http://zoho.com" xr:uid="{6601AFC5-D571-44BA-AB49-FF6241C2C38F}"/>
+    <hyperlink ref="D10" r:id="rId2" display="http://zoho.com" xr:uid="{BF1D0042-B534-4605-90DF-5A0F46007B51}"/>
+    <hyperlink ref="D35" r:id="rId3" display="http://zoho.com" xr:uid="{5F29A361-FCE3-4F5B-AB83-94D931BC7FDB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
@@ -1358,10 +1646,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:U12"/>
+  <dimension ref="A1:Y12"/>
   <sheetViews>
-    <sheetView topLeftCell="E4" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="H6" workbookViewId="0">
+      <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1376,12 +1664,12 @@
     <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1398,7 +1686,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1406,21 +1694,21 @@
         <v>10</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" ht="75" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="120" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
@@ -1428,64 +1716,73 @@
         <v>5</v>
       </c>
       <c r="C6" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="G6" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" s="9" t="s">
+      <c r="H6" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="I6" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="J6" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="K6" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="L6" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="J6" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="L6" s="9" t="s">
+      <c r="M6" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="P6" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="M6" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="N6" s="9" t="s">
+      <c r="Q6" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="R6" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="S6" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="O6" s="9" t="s">
+      <c r="T6" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="P6" s="9" t="s">
+      <c r="U6" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="Q6" s="9" t="s">
+      <c r="V6" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="R6" s="9" t="s">
+      <c r="W6" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="S6" s="9" t="s">
+      <c r="X6" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="T6" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="U6" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:25" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -1493,64 +1790,73 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" t="s">
         <v>42</v>
       </c>
-      <c r="E7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H7" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="G7" t="s">
-        <v>80</v>
-      </c>
-      <c r="H7" s="10" t="s">
+      <c r="I7" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="I7" s="10" t="s">
-        <v>48</v>
-      </c>
       <c r="J7" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="K7" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="K7" s="10" t="s">
-        <v>51</v>
-      </c>
       <c r="L7" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="M7" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="N7" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="O7" s="11" t="s">
-        <v>63</v>
+        <v>58</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="N7" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="O7" s="10" t="s">
+        <v>87</v>
       </c>
       <c r="P7" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Q7" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="R7" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="S7" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="T7" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="U7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="S7" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="T7" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="U7" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="V7" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="W7" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="X7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -1558,69 +1864,96 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" t="s">
         <v>42</v>
       </c>
-      <c r="E8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
+        <v>83</v>
+      </c>
+      <c r="H8" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="G8" t="s">
-        <v>81</v>
-      </c>
-      <c r="H8" s="10" t="s">
+      <c r="I8" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="I8" s="10" t="s">
-        <v>48</v>
-      </c>
       <c r="J8" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="K8" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="K8" s="10" t="s">
-        <v>51</v>
-      </c>
       <c r="L8" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="M8" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="N8" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="O8" s="11" t="s">
-        <v>63</v>
+        <v>58</v>
+      </c>
+      <c r="M8" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="N8" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="O8" s="10" t="s">
+        <v>87</v>
       </c>
       <c r="P8" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Q8" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="R8" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="S8" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="T8" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="U8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="S8" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="T8" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="U8" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="V8" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="W8" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="X8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="12"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" ht="120" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>1</v>
       </c>
@@ -1628,13 +1961,76 @@
         <v>5</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N11" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="O11" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="P11" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q11" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="R11" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="S11" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="T11" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="U11" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="V11" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="W11" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="X11" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y11" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -1642,10 +2038,73 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D12" t="s">
-        <v>11</v>
+        <v>35</v>
+      </c>
+      <c r="E12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" t="s">
+        <v>83</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="M12" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="N12" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="O12" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="P12" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q12" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="R12" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="S12" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="T12" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="U12" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="V12" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="W12" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="X12" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1653,5 +2112,814 @@
     <hyperlink ref="C3" r:id="rId1" xr:uid="{9C65CB5E-FC83-4033-9DFD-BC4265D364A3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D51D3C5A-535C-450B-975A-9CD1A2CF5175}">
+  <dimension ref="A1:E57"/>
+  <sheetViews>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" customWidth="1"/>
+    <col min="5" max="5" width="33" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="7"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E32" s="7"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" s="13"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E36" s="13"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E38" s="13"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B45" s="13"/>
+      <c r="C45" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B46" s="13"/>
+      <c r="C46" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B47" s="13"/>
+      <c r="C47" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B48" s="13"/>
+      <c r="C48" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B49" s="13"/>
+      <c r="C49" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B51" s="13"/>
+      <c r="C51" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D51" s="13"/>
+      <c r="E51" s="13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B52" s="13"/>
+      <c r="C52" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B53" s="13"/>
+      <c r="C53" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B54" s="13"/>
+      <c r="C54" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B55" s="13"/>
+      <c r="C55" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D55" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E55" s="13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B56" s="13"/>
+      <c r="C56" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D56" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E56" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B57" s="13"/>
+      <c r="C57" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D57" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E57" s="13"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1" display="http://zoho.com" xr:uid="{3794B874-592C-4EEA-B177-B284F2113FDD}"/>
+    <hyperlink ref="D10" r:id="rId2" display="http://zoho.com" xr:uid="{253BAEFF-D6DC-4626-BD10-1D7A8D5C6D4E}"/>
+    <hyperlink ref="D34" r:id="rId3" display="http://zoho.com" xr:uid="{CF183FD2-218F-454C-93FB-C7CA33F654FB}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/sheets/SuiteA.xlsx
+++ b/sheets/SuiteA.xlsx
@@ -3,22 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1039413C-F291-43A8-8A89-65F402F4F0B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6862D7F-756E-4BDD-93A3-18FDB84C0714}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
     <sheet name="Keywords" sheetId="2" r:id="rId2"/>
     <sheet name="Data" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="92">
   <si>
     <t>TCID</t>
   </si>
@@ -266,9 +265,6 @@
     <t>sleep</t>
   </si>
   <si>
-    <t>C:\Users\suresh\git\images\Tomato.jpg</t>
-  </si>
-  <si>
     <t>testing123</t>
   </si>
   <si>
@@ -288,13 +284,22 @@
   </si>
   <si>
     <t>Feture Product</t>
+  </si>
+  <si>
+    <t>updateButton_xpath</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>C:\Users\suresh\git\placetheorder\Images\Tomato.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -328,6 +333,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -824,10 +835,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E58"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:XFD45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1372,266 +1383,59 @@
       <c r="A40" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>50</v>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>51</v>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>38</v>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B49" s="7"/>
-      <c r="C49" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B50" s="7"/>
-      <c r="C50" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B52" s="7"/>
-      <c r="C52" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B53" s="7"/>
-      <c r="C53" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B54" s="7"/>
-      <c r="C54" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B55" s="7"/>
-      <c r="C55" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="E55" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B56" s="7"/>
-      <c r="C56" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E56" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B57" s="7"/>
-      <c r="C57" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B58" s="7"/>
-      <c r="C58" s="7" t="s">
+      <c r="B43" s="13"/>
+      <c r="C43" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D58" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E58" s="7"/>
+      <c r="D43" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E43" s="13"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1646,10 +1450,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Y12"/>
+  <dimension ref="A1:X12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H6" workbookViewId="0">
-      <selection activeCell="U7" sqref="U7"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11:I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1664,12 +1468,12 @@
     <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1686,7 +1490,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1703,12 +1507,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="120" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="120" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
@@ -1749,10 +1553,10 @@
         <v>56</v>
       </c>
       <c r="N6" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="O6" s="9" t="s">
         <v>85</v>
-      </c>
-      <c r="O6" s="9" t="s">
-        <v>86</v>
       </c>
       <c r="P6" s="9" t="s">
         <v>59</v>
@@ -1782,7 +1586,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -1802,7 +1606,7 @@
         <v>42</v>
       </c>
       <c r="G7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H7" s="10" t="s">
         <v>44</v>
@@ -1820,13 +1624,13 @@
         <v>58</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N7" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O7" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P7" s="11" t="s">
         <v>61</v>
@@ -1853,10 +1657,10 @@
         <v>71</v>
       </c>
       <c r="X7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" ht="60" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -1876,7 +1680,7 @@
         <v>42</v>
       </c>
       <c r="G8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H8" s="10" t="s">
         <v>44</v>
@@ -1894,13 +1698,13 @@
         <v>58</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N8" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O8" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P8" s="11" t="s">
         <v>61</v>
@@ -1927,10 +1731,10 @@
         <v>71</v>
       </c>
       <c r="X8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
@@ -1948,12 +1752,12 @@
       <c r="V9" s="12"/>
       <c r="W9" s="12"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="120" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>1</v>
       </c>
@@ -1963,74 +1767,32 @@
       <c r="C11" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>38</v>
+      <c r="D11" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>63</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="L11" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="M11" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="N11" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="O11" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="P11" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q11" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="R11" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="S11" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="T11" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="U11" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="V11" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="W11" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="X11" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="Y11" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -2038,888 +1800,39 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>84</v>
-      </c>
-      <c r="D12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" t="s">
-        <v>39</v>
-      </c>
-      <c r="G12" t="s">
-        <v>42</v>
-      </c>
-      <c r="H12" t="s">
         <v>83</v>
       </c>
-      <c r="I12" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="K12" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="L12" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="M12" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="N12" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="O12" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="P12" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q12" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="R12" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="S12" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="T12" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="U12" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="V12" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="W12" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="X12" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>82</v>
+      <c r="D12" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" xr:uid="{9C65CB5E-FC83-4033-9DFD-BC4265D364A3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D51D3C5A-535C-450B-975A-9CD1A2CF5175}">
-  <dimension ref="A1:E57"/>
-  <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="26.5703125" customWidth="1"/>
-    <col min="5" max="5" width="33" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="7"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="7"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="7"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E32" s="7"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E34" s="13"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="E36" s="13"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E37" s="13" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="E38" s="13"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E39" s="13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E40" s="13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B41" s="13"/>
-      <c r="C41" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D41" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E41" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B42" s="13"/>
-      <c r="C42" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D42" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E42" s="13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B43" s="13"/>
-      <c r="C43" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E43" s="13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B44" s="13"/>
-      <c r="C44" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B45" s="13"/>
-      <c r="C45" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B46" s="13"/>
-      <c r="C46" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B47" s="13"/>
-      <c r="C47" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B48" s="13"/>
-      <c r="C48" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D48" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="E48" s="13" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B49" s="13"/>
-      <c r="C49" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B50" s="13"/>
-      <c r="C50" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B51" s="13"/>
-      <c r="C51" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="D51" s="13"/>
-      <c r="E51" s="13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B52" s="13"/>
-      <c r="C52" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="D52" s="13"/>
-      <c r="E52" s="13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B53" s="13"/>
-      <c r="C53" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="D53" s="13"/>
-      <c r="E53" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B54" s="13"/>
-      <c r="C54" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D54" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="E54" s="13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B55" s="13"/>
-      <c r="C55" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D55" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="E55" s="13" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B56" s="13"/>
-      <c r="C56" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D56" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="E56" s="13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B57" s="13"/>
-      <c r="C57" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D57" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="E57" s="13"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" display="http://zoho.com" xr:uid="{3794B874-592C-4EEA-B177-B284F2113FDD}"/>
-    <hyperlink ref="D10" r:id="rId2" display="http://zoho.com" xr:uid="{253BAEFF-D6DC-4626-BD10-1D7A8D5C6D4E}"/>
-    <hyperlink ref="D34" r:id="rId3" display="http://zoho.com" xr:uid="{CF183FD2-218F-454C-93FB-C7CA33F654FB}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/sheets/SuiteA.xlsx
+++ b/sheets/SuiteA.xlsx
@@ -3,21 +3,22 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6862D7F-756E-4BDD-93A3-18FDB84C0714}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E14895C2-186D-4B94-88DF-4CBE2CB1279C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
     <sheet name="Keywords" sheetId="2" r:id="rId2"/>
-    <sheet name="Data" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
+    <sheet name="Data" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="93">
   <si>
     <t>TCID</t>
   </si>
@@ -293,6 +294,9 @@
   </si>
   <si>
     <t>C:\Users\suresh\git\placetheorder\Images\Tomato.jpg</t>
+  </si>
+  <si>
+    <t>cityPrice_xpath</t>
   </si>
 </sst>
 </file>
@@ -421,7 +425,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -444,6 +448,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -786,7 +791,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B3" sqref="B3:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -816,7 +821,7 @@
         <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -824,7 +829,7 @@
         <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -835,10 +840,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:XFD45"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1171,11 +1176,13 @@
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D24" s="7"/>
+        <v>18</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>72</v>
+      </c>
       <c r="E24" s="7" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1184,11 +1191,13 @@
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D25" s="7"/>
+        <v>18</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>73</v>
+      </c>
       <c r="E25" s="7" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1197,11 +1206,13 @@
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D26" s="7"/>
+        <v>18</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>76</v>
+      </c>
       <c r="E26" s="7" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1210,12 +1221,12 @@
       </c>
       <c r="B27" s="7"/>
       <c r="C27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7" t="s">
-        <v>65</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E27" s="7"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
@@ -1223,83 +1234,77 @@
       </c>
       <c r="B28" s="7"/>
       <c r="C28" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7" t="s">
-        <v>66</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="D28" s="7">
+        <v>20</v>
+      </c>
+      <c r="E28" s="7"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7" t="s">
+      <c r="A29" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" s="13"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E32" s="13"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D29" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E32" s="7"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D33" s="7">
-        <v>20</v>
-      </c>
-      <c r="E33" s="7"/>
+      <c r="D33" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
@@ -1307,12 +1312,12 @@
       </c>
       <c r="B34" s="13"/>
       <c r="C34" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13" t="s">
-        <v>5</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E34" s="13"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
@@ -1320,12 +1325,14 @@
       </c>
       <c r="B35" s="13"/>
       <c r="C35" s="13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E35" s="13"/>
+        <v>74</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
@@ -1333,10 +1340,14 @@
       </c>
       <c r="B36" s="13"/>
       <c r="C36" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
+        <v>18</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
@@ -1344,12 +1355,14 @@
       </c>
       <c r="B37" s="13"/>
       <c r="C37" s="13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="E37" s="13"/>
+        <v>73</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
@@ -1357,14 +1370,12 @@
       </c>
       <c r="B38" s="13"/>
       <c r="C38" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E38" s="13" t="s">
-        <v>79</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="E38" s="13"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
@@ -1372,76 +1383,20 @@
       </c>
       <c r="B39" s="13"/>
       <c r="C39" s="13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="E39" s="13"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="E40" s="13" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B41" s="13"/>
-      <c r="C41" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D41" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="E41" s="13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B42" s="13"/>
-      <c r="C42" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D42" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="E42" s="13" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B43" s="13"/>
-      <c r="C43" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="E43" s="13"/>
+        <v>92</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>62</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1" display="http://zoho.com" xr:uid="{6601AFC5-D571-44BA-AB49-FF6241C2C38F}"/>
     <hyperlink ref="D10" r:id="rId2" display="http://zoho.com" xr:uid="{BF1D0042-B534-4605-90DF-5A0F46007B51}"/>
-    <hyperlink ref="D35" r:id="rId3" display="http://zoho.com" xr:uid="{5F29A361-FCE3-4F5B-AB83-94D931BC7FDB}"/>
+    <hyperlink ref="D30" r:id="rId3" display="http://zoho.com" xr:uid="{5F29A361-FCE3-4F5B-AB83-94D931BC7FDB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
@@ -1449,6 +1404,681 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA228C29-E449-4FC1-B67B-0E502897FEA0}">
+  <dimension ref="A1:E48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="7"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E32" s="7"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D33" s="7">
+        <v>20</v>
+      </c>
+      <c r="E33" s="7"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" s="13"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E37" s="13"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E39" s="13"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B45" s="13"/>
+      <c r="C45" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B46" s="13"/>
+      <c r="C46" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B47" s="13"/>
+      <c r="C47" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B48" s="13"/>
+      <c r="C48" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E48" s="13"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1" display="http://zoho.com" xr:uid="{619624F5-9F12-49FC-A787-EF6A29201003}"/>
+    <hyperlink ref="D10" r:id="rId2" display="http://zoho.com" xr:uid="{B62135AE-6174-428F-A2B9-C2355094AF85}"/>
+    <hyperlink ref="D35" r:id="rId3" display="http://zoho.com" xr:uid="{72C07FBC-B078-40D4-AC6F-A8031FA32CA2}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:X12"/>
   <sheetViews>

--- a/sheets/SuiteA.xlsx
+++ b/sheets/SuiteA.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E14895C2-186D-4B94-88DF-4CBE2CB1279C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E61F6B49-DB5E-4AAA-BDBA-EEB00CDD1DEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="98">
   <si>
     <t>TCID</t>
   </si>
@@ -161,9 +161,6 @@
     <t>In to Deals Of The Week</t>
   </si>
   <si>
-    <t>Feature Product</t>
-  </si>
-  <si>
     <t>Select For Hot Product Section</t>
   </si>
   <si>
@@ -230,9 +227,6 @@
     <t>Product Picture</t>
   </si>
   <si>
-    <t>50</t>
-  </si>
-  <si>
     <t>12</t>
   </si>
   <si>
@@ -290,13 +284,34 @@
     <t>updateButton_xpath</t>
   </si>
   <si>
-    <t>20</t>
-  </si>
-  <si>
     <t>C:\Users\suresh\git\placetheorder\Images\Tomato.jpg</t>
   </si>
   <si>
-    <t>cityPrice_xpath</t>
+    <t>100</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
   </si>
 </sst>
 </file>
@@ -425,7 +440,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -448,7 +463,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -791,7 +805,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -840,10 +854,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1040,7 +1054,7 @@
         <v>34</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1055,7 +1069,7 @@
         <v>36</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1085,7 +1099,7 @@
         <v>41</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1100,7 +1114,7 @@
         <v>43</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1113,7 +1127,7 @@
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1126,7 +1140,7 @@
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1139,7 +1153,7 @@
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1152,7 +1166,7 @@
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1164,10 +1178,10 @@
         <v>18</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1176,13 +1190,11 @@
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>72</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="D24" s="7"/>
       <c r="E24" s="7" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1191,13 +1203,11 @@
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>73</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="D25" s="7"/>
       <c r="E25" s="7" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1206,13 +1216,11 @@
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>76</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="D26" s="7"/>
       <c r="E26" s="7" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1221,12 +1229,12 @@
       </c>
       <c r="B27" s="7"/>
       <c r="C27" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E27" s="7"/>
+        <v>59</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
@@ -1234,77 +1242,83 @@
       </c>
       <c r="B28" s="7"/>
       <c r="C28" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D28" s="7">
+        <v>59</v>
+      </c>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E32" s="7"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D33" s="7">
         <v>20</v>
       </c>
-      <c r="E28" s="7"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E30" s="13"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="E32" s="13"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E33" s="13" t="s">
-        <v>79</v>
-      </c>
+      <c r="E33" s="7"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
@@ -1312,12 +1326,12 @@
       </c>
       <c r="B34" s="13"/>
       <c r="C34" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="E34" s="13"/>
+        <v>15</v>
+      </c>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
@@ -1325,14 +1339,12 @@
       </c>
       <c r="B35" s="13"/>
       <c r="C35" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="E35" s="13" t="s">
-        <v>59</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E35" s="13"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
@@ -1340,14 +1352,10 @@
       </c>
       <c r="B36" s="13"/>
       <c r="C36" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="E36" s="13" t="s">
-        <v>67</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
@@ -1355,14 +1363,12 @@
       </c>
       <c r="B37" s="13"/>
       <c r="C37" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="E37" s="13" t="s">
-        <v>68</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="E37" s="13"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
@@ -1370,12 +1376,14 @@
       </c>
       <c r="B38" s="13"/>
       <c r="C38" s="13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="E38" s="13"/>
+        <v>76</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
@@ -1383,20 +1391,141 @@
       </c>
       <c r="B39" s="13"/>
       <c r="C39" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="E39" s="13"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D39" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="E39" s="14" t="s">
+      <c r="D40" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7" t="s">
         <v>62</v>
       </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B46" s="13"/>
+      <c r="C46" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B47" s="13"/>
+      <c r="C47" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B48" s="13"/>
+      <c r="C48" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E48" s="13"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1" display="http://zoho.com" xr:uid="{6601AFC5-D571-44BA-AB49-FF6241C2C38F}"/>
     <hyperlink ref="D10" r:id="rId2" display="http://zoho.com" xr:uid="{BF1D0042-B534-4605-90DF-5A0F46007B51}"/>
-    <hyperlink ref="D30" r:id="rId3" display="http://zoho.com" xr:uid="{5F29A361-FCE3-4F5B-AB83-94D931BC7FDB}"/>
+    <hyperlink ref="D35" r:id="rId3" display="http://zoho.com" xr:uid="{5F29A361-FCE3-4F5B-AB83-94D931BC7FDB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
@@ -1407,13 +1536,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA228C29-E449-4FC1-B67B-0E502897FEA0}">
   <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E48"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1601,7 +1731,7 @@
         <v>34</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1616,7 +1746,7 @@
         <v>36</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1646,7 +1776,7 @@
         <v>41</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1661,7 +1791,7 @@
         <v>43</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1674,7 +1804,7 @@
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1687,7 +1817,7 @@
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1700,7 +1830,7 @@
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1713,7 +1843,7 @@
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1725,10 +1855,10 @@
         <v>18</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1737,11 +1867,11 @@
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1750,11 +1880,11 @@
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1763,11 +1893,11 @@
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1776,11 +1906,11 @@
       </c>
       <c r="B27" s="7"/>
       <c r="C27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1789,11 +1919,11 @@
       </c>
       <c r="B28" s="7"/>
       <c r="C28" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1805,10 +1935,10 @@
         <v>18</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1820,10 +1950,10 @@
         <v>18</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1835,10 +1965,10 @@
         <v>18</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1850,7 +1980,7 @@
         <v>17</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E32" s="7"/>
     </row>
@@ -1860,7 +1990,7 @@
       </c>
       <c r="B33" s="7"/>
       <c r="C33" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D33" s="7">
         <v>20</v>
@@ -1913,7 +2043,7 @@
         <v>17</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E37" s="13"/>
     </row>
@@ -1926,10 +2056,10 @@
         <v>18</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1941,7 +2071,7 @@
         <v>17</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E39" s="13"/>
     </row>
@@ -1954,10 +2084,10 @@
         <v>18</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -1966,11 +2096,11 @@
       </c>
       <c r="B41" s="13"/>
       <c r="C41" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D41" s="13"/>
       <c r="E41" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -1979,11 +2109,11 @@
       </c>
       <c r="B42" s="13"/>
       <c r="C42" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D42" s="13"/>
       <c r="E42" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -1992,11 +2122,11 @@
       </c>
       <c r="B43" s="13"/>
       <c r="C43" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D43" s="13"/>
       <c r="E43" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -2005,11 +2135,11 @@
       </c>
       <c r="B44" s="13"/>
       <c r="C44" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D44" s="13"/>
       <c r="E44" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -2018,11 +2148,11 @@
       </c>
       <c r="B45" s="13"/>
       <c r="C45" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D45" s="13"/>
       <c r="E45" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -2034,10 +2164,10 @@
         <v>18</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -2049,10 +2179,10 @@
         <v>18</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -2064,7 +2194,7 @@
         <v>17</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E48" s="13"/>
     </row>
@@ -2080,10 +2210,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:X12"/>
+  <dimension ref="A1:W12"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11:I12"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2098,12 +2228,12 @@
     <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -2120,7 +2250,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2137,12 +2267,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="120" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" ht="120" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
@@ -2150,46 +2280,46 @@
         <v>5</v>
       </c>
       <c r="C6" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>50</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>51</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>38</v>
       </c>
       <c r="F6" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="H6" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="I6" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="J6" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="K6" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="L6" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="K6" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="L6" s="9" t="s">
-        <v>57</v>
-      </c>
       <c r="M6" s="9" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Q6" s="9" t="s">
         <v>62</v>
@@ -2212,11 +2342,8 @@
       <c r="W6" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="X6" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:23" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -2236,7 +2363,7 @@
         <v>42</v>
       </c>
       <c r="G7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H7" s="10" t="s">
         <v>44</v>
@@ -2245,52 +2372,49 @@
         <v>46</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M7" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="N7" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="O7" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="P7" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q7" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="R7" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="S7" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="T7" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="U7" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="V7" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="W7" t="s">
         <v>88</v>
       </c>
-      <c r="N7" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="O7" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="P7" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q7" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="R7" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="S7" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="T7" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="U7" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="V7" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="W7" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="X7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:23" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -2310,7 +2434,7 @@
         <v>42</v>
       </c>
       <c r="G8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H8" s="10" t="s">
         <v>44</v>
@@ -2319,52 +2443,49 @@
         <v>46</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M8" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="N8" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="O8" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="P8" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q8" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="R8" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="S8" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="T8" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="U8" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="V8" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="W8" t="s">
         <v>88</v>
       </c>
-      <c r="N8" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="O8" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="P8" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q8" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="R8" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="S8" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="T8" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="U8" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="V8" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="W8" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="X8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
@@ -2372,22 +2493,21 @@
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
+      <c r="O9" s="11"/>
       <c r="P9" s="11"/>
       <c r="Q9" s="11"/>
       <c r="R9" s="11"/>
       <c r="S9" s="11"/>
       <c r="T9" s="11"/>
-      <c r="U9" s="11"/>
+      <c r="U9" s="12"/>
       <c r="V9" s="12"/>
-      <c r="W9" s="12"/>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>1</v>
       </c>
@@ -2395,34 +2515,34 @@
         <v>5</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E11" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="G11" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="H11" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="I11" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="I11" s="9" t="s">
+      <c r="J11" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="J11" s="9" t="s">
+      <c r="K11" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="K11" s="9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -2430,31 +2550,31 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>90</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="K12" s="11" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
